--- a/report.xlsx
+++ b/report.xlsx
@@ -14,29 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ОТЧЁТ ПО ПОСЕЩАЕМОСТИ</t>
   </si>
   <si>
-    <t>Краткий (по алфавиту)</t>
-  </si>
-  <si>
-    <t>от 27.02.2024 17:08:25</t>
+    <t>Краткий (по посещаемости)</t>
+  </si>
+  <si>
+    <t>от 10.05.2024 19:05:51</t>
   </si>
   <si>
     <t xml:space="preserve">по дисциплине: </t>
   </si>
   <si>
-    <t>Технология программирования CS-202, CS-204</t>
-  </si>
-  <si>
     <t xml:space="preserve">группа: </t>
   </si>
   <si>
-    <t>СS-202</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -46,94 +40,16 @@
     <t>Количество посещений</t>
   </si>
   <si>
-    <t>2024-01-29 08:15:49</t>
-  </si>
-  <si>
-    <t>2024-02-26 20:35:51</t>
+    <t>2022-09-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-06-01 23:59:59</t>
   </si>
   <si>
     <t xml:space="preserve">Дата и время начала анализа: </t>
   </si>
   <si>
     <t xml:space="preserve">Дата и время конца анализа: </t>
-  </si>
-  <si>
-    <t>FAOB MICHAEL (СS-202)</t>
-  </si>
-  <si>
-    <t>6 (60%)</t>
-  </si>
-  <si>
-    <t>АБДРАХПЕНАВ ЖЕПДОС БОНЕПБАЕВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>3 (30%)</t>
-  </si>
-  <si>
-    <t>АБИЕВ АРЫН ОНДАРБЕКАВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>9 (90%)</t>
-  </si>
-  <si>
-    <t>АУБАСИРЕВ МАДИ УЛЕПАВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>БЕЙКЕНАВ АМИР МАРЕПАВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>5 (50%)</t>
-  </si>
-  <si>
-    <t>ДЕКСКОЙПЕР МАНСИМ КЕРГЕВ (СS-202)</t>
-  </si>
-  <si>
-    <t>ЗОЛОТАВ БОГДЕП КЕРГЕВ (СS-202)</t>
-  </si>
-  <si>
-    <t>8 (80%)</t>
-  </si>
-  <si>
-    <t>КАИР БОГДЕП (СS-202)</t>
-  </si>
-  <si>
-    <t>КАПЕНАВ УАЛИХЕП ТАЛГОПАВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>КИРПЕНЁВ ДЕПИЕЛ ЕПДРЕЕВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>1 (10%)</t>
-  </si>
-  <si>
-    <t>МАЛИМОН НИКУР КЕРГЕВ (СS-202)</t>
-  </si>
-  <si>
-    <t>МУСИН ДЕПИЯЛ КЕПОПАВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>7 (70%)</t>
-  </si>
-  <si>
-    <t>ПИНЕВОСЧИКАВ ВЛАДИСЛАВ ЮРЬЕВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>СОНОЧИНСКИЙ МАНСИМ ЕВГЕНЬЕВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>ТУКАЕВ ФАРХОП ГАЗИНУРЕВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>10 (100%)</t>
-  </si>
-  <si>
-    <t>ШАРИПАВ ИСЛАМ САДИБЕКАВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>ШУНГУЛАВ АЛДИЯР (СS-202)</t>
-  </si>
-  <si>
-    <t>ЯРЕЩУК ДЕПЕЛ (СS-202)</t>
   </si>
 </sst>
 </file>
@@ -483,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,241 +430,39 @@
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>17</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -14,23 +14,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>ОТЧЁТ ПО ПОСЕЩАЕМОСТИ</t>
   </si>
   <si>
-    <t>Краткий (по посещаемости)</t>
-  </si>
-  <si>
-    <t>от 10.05.2024 19:05:51</t>
+    <t>Краткий (по алфавиту)</t>
+  </si>
+  <si>
+    <t>от 27.06.2024 18:58:50</t>
   </si>
   <si>
     <t xml:space="preserve">по дисциплине: </t>
   </si>
   <si>
+    <t>Технология программирования  CS-202, CS-204</t>
+  </si>
+  <si>
     <t xml:space="preserve">группа: </t>
   </si>
   <si>
+    <t>СS-202</t>
+  </si>
+  <si>
     <t>№</t>
   </si>
   <si>
@@ -40,16 +46,91 @@
     <t>Количество посещений</t>
   </si>
   <si>
-    <t>2022-09-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2023-06-01 23:59:59</t>
+    <t>2024-03-26 08:16:57</t>
+  </si>
+  <si>
+    <t>2024-05-10 19:36:07</t>
   </si>
   <si>
     <t xml:space="preserve">Дата и время начала анализа: </t>
   </si>
   <si>
     <t xml:space="preserve">Дата и время конца анализа: </t>
+  </si>
+  <si>
+    <t>FAJOBI MICHAEL (СS-202)</t>
+  </si>
+  <si>
+    <t>11 (91%)</t>
+  </si>
+  <si>
+    <t>MUHAMMAD MUSTAPHA (СS-202)</t>
+  </si>
+  <si>
+    <t>АБДРАХМАНОВ ЖАНДОС БОРАНБАЕВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>5 (41%)</t>
+  </si>
+  <si>
+    <t>АБИЕВ АРЫН ОНДАРБЕКАВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>9 (75%)</t>
+  </si>
+  <si>
+    <t>АУБАКИРОВ МАДИ УЛАНОВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>БЕЙСЕНОВ АМИР МАРАТОВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>6 (50%)</t>
+  </si>
+  <si>
+    <t>ДЕКСКАЙМЕР МАКСИМ СЕРГЕЕВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>7 (58%)</t>
+  </si>
+  <si>
+    <t>ЗОЛОТОВ БОГДАН СЕРГЕЕВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>КАИР БОГДАН (СS-202)</t>
+  </si>
+  <si>
+    <t>КАПЕНОВ УАЛИХАН ТАЛГАТОВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>12 (100%)</t>
+  </si>
+  <si>
+    <t>МАЛИМОН НИКИТА СЕРГЕЕВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>МУСИН ДАНИЯЛ КАНАТОВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>8 (66%)</t>
+  </si>
+  <si>
+    <t>ПЕРЕВОЗЧИКОВ ВЛАДИСЛАВ ЮРЬЕВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>СОРОЧИНСКИЙ МАКСИМ ЕВГЕНЬЕВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>ТУКАЕВ ФАРХАТ ГАЗИНУРОВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>ШАРИПОВ ИСЛАМ САДИБЕКОВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>3 (25%)</t>
+  </si>
+  <si>
+    <t>ШУНГУЛОВ АЛДИЯР (СS-202)</t>
   </si>
 </sst>
 </file>
@@ -399,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,13 +493,13 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -426,43 +507,285 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="2" t="s">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="2" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -22,7 +22,7 @@
     <t>Краткий (по алфавиту)</t>
   </si>
   <si>
-    <t>от 27.06.2024 18:58:50</t>
+    <t>от 03.07.2024 18:55:52</t>
   </si>
   <si>
     <t xml:space="preserve">по дисциплине: </t>
